--- a/data.xlsx
+++ b/data.xlsx
@@ -61,11 +61,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>type</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>restoran_price</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>optom_price</text:p>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>price</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>description</text:p>
@@ -75,16 +73,16 @@
           <table:table-cell table:number-columns-repeated="2" office:value-type="float" office:value="1" calcext:value-type="float">
             <text:p>1</text:p>
           </table:table-cell>
-          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>https://t.me/unilance/3301</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>asd</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>dona</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="123123" calcext:value-type="float">
-            <text:p>123123</text:p>
-          </table:table-cell>
+          <table:table-cell/>
           <table:table-cell office:value-type="float" office:value="12" calcext:value-type="float">
             <text:p>12</text:p>
           </table:table-cell>
@@ -106,9 +104,7 @@
           <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>kg</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="12312" calcext:value-type="float">
-            <text:p>12312</text:p>
-          </table:table-cell>
+          <table:table-cell/>
           <table:table-cell office:value-type="float" office:value="21" calcext:value-type="float">
             <text:p>21</text:p>
           </table:table-cell>
@@ -130,9 +126,7 @@
           <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>kg</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="213" calcext:value-type="float">
-            <text:p>213</text:p>
-          </table:table-cell>
+          <table:table-cell/>
           <table:table-cell office:value-type="float" office:value="42" calcext:value-type="float">
             <text:p>42</text:p>
           </table:table-cell>
@@ -156,9 +150,7 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>dona</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="123" calcext:value-type="float">
-            <text:p>123</text:p>
-          </table:table-cell>
+          <table:table-cell/>
           <table:table-cell office:value-type="float" office:value="32" calcext:value-type="float">
             <text:p>32</text:p>
           </table:table-cell>
@@ -182,9 +174,7 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>kg</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="123" calcext:value-type="float">
-            <text:p>123</text:p>
-          </table:table-cell>
+          <table:table-cell/>
           <table:table-cell office:value-type="float" office:value="24" calcext:value-type="float">
             <text:p>24</text:p>
           </table:table-cell>
@@ -208,9 +198,7 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>dona</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="123" calcext:value-type="float">
-            <text:p>123</text:p>
-          </table:table-cell>
+          <table:table-cell/>
           <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
             <text:p>4</text:p>
           </table:table-cell>
@@ -234,9 +222,7 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>kg</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="123" calcext:value-type="float">
-            <text:p>123</text:p>
-          </table:table-cell>
+          <table:table-cell/>
           <table:table-cell office:value-type="float" office:value="34" calcext:value-type="float">
             <text:p>34</text:p>
           </table:table-cell>
@@ -258,9 +244,7 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>dona</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="213" calcext:value-type="float">
-            <text:p>213</text:p>
-          </table:table-cell>
+          <table:table-cell/>
           <table:table-cell office:value-type="float" office:value="34" calcext:value-type="float">
             <text:p>34</text:p>
           </table:table-cell>
@@ -282,7 +266,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>kg </text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="2" office:value-type="float" office:value="23" calcext:value-type="float">
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="23" calcext:value-type="float">
             <text:p>23</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -303,9 +288,7 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>kg </text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="23" calcext:value-type="float">
-            <text:p>23</text:p>
-          </table:table-cell>
+          <table:table-cell/>
           <table:table-cell office:value-type="float" office:value="32" calcext:value-type="float">
             <text:p>32</text:p>
           </table:table-cell>
@@ -327,9 +310,7 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>kg </text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="24" calcext:value-type="float">
-            <text:p>24</text:p>
-          </table:table-cell>
+          <table:table-cell/>
           <table:table-cell office:value-type="float" office:value="32" calcext:value-type="float">
             <text:p>32</text:p>
           </table:table-cell>
@@ -351,9 +332,7 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>kg</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="123" calcext:value-type="float">
-            <text:p>123</text:p>
-          </table:table-cell>
+          <table:table-cell/>
           <table:table-cell office:value-type="float" office:value="23" calcext:value-type="float">
             <text:p>23</text:p>
           </table:table-cell>
@@ -372,11 +351,11 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.3">
   <office:meta>
     <meta:creation-date>2024-09-04T10:05:37.935330503</meta:creation-date>
-    <dc:date>2024-10-21T14:19:17.822756346</dc:date>
-    <meta:editing-duration>PT41M43S</meta:editing-duration>
-    <meta:editing-cycles>9</meta:editing-cycles>
+    <dc:date>2024-11-14T10:45:56.636676318</dc:date>
+    <meta:editing-duration>PT45M2S</meta:editing-duration>
+    <meta:editing-cycles>10</meta:editing-cycles>
     <meta:generator>LibreOffice/24.2.6.2$Linux_X86_64 LibreOffice_project/420$Build-2</meta:generator>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="96" meta:object-count="0"/>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="84" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -394,10 +373,10 @@
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">3</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">8</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">5</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">5</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
-              <config:config-item config:name="PositionLeft" config:type="int">2</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
@@ -412,7 +391,7 @@
             </config:config-item-map-entry>
           </config:config-item-map-named>
           <config:config-item config:name="ActiveTable" config:type="string">Sheet1</config:config-item>
-          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">857</config:config-item>
+          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1836</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">280</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -464,7 +443,7 @@
       <config:config-item config:name="LoadReadonly" config:type="boolean">false</config:config-item>
       <config:config-item config:name="PrinterName" config:type="string">Generic Printer</config:config-item>
       <config:config-item config:name="PrinterPaperFromSetup" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">xAH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAsAAAAAAAAAAIAFZUAAAkbQAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luYWRqdXN0bWVudD0wLDAsJzAsMApjb2xvcmRlcHRoPTI0CmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4dERhdGEKUGFnZVNpemU6TGV0dGVyAER1cGxleDpOb25lAAASAENPTVBBVF9EVVBMRVhfTU9ERQ8ARHVwbGV4TW9kZTo6T2ZmDABQUklOVEVSX05BTUUPAEdlbmVyaWMgUHJpbnRlcgsARFJJVkVSX05BTUUHAFNHRU5QUlQ=</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">xAH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAsAAAAAAAAAAIAFZUAAAkbQAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luYWRqdXN0bWVudD0wLDAsJzAsMApjb2xvcmRlcHRoPTI0CmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4dERhdGEKRHVwbGV4Ok5vbmUAUGFnZVNpemU6TGV0dGVyAAASAENPTVBBVF9EVVBMRVhfTU9ERQ8ARHVwbGV4TW9kZTo6T2ZmDABQUklOVEVSX05BTUUPAEdlbmVyaWMgUHJpbnRlcgsARFJJVkVSX05BTUUHAFNHRU5QUlQ=</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1270</config:config-item>
       <config:config-item config:name="RasterResolutionY" config:type="int">1270</config:config-item>
@@ -662,9 +641,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2024-10-21">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2024-11-14">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="14:19:06.741421917">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="10:42:37.192814699">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
